--- a/registration.xlsx
+++ b/registration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoungming/Desktop/NTU_4-2/GenAI TA/Draw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoungming/Desktop/NTU_4-2/GenAI TA/GenAI-TA-Draw-Lots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809F558-64F1-2145-AA46-6F4C66B47383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A3440-0D51-EE42-BFAB-2F9A5AA469C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -58,6 +59,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -71,6 +73,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -84,6 +87,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -97,6 +101,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -110,6 +115,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -123,6 +129,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -136,6 +143,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -149,6 +157,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -162,6 +171,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -175,6 +185,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -188,6 +199,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -201,6 +213,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -214,6 +227,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -227,6 +241,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -240,6 +255,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -253,6 +269,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -266,6 +283,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -279,6 +297,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -292,6 +311,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -305,6 +325,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -318,6 +339,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -331,6 +353,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -344,6 +367,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -357,6 +381,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -370,6 +395,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -383,6 +409,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -396,6 +423,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -409,6 +437,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -422,6 +451,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -435,6 +465,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -448,6 +479,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -461,6 +493,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -474,6 +507,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -487,6 +521,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -500,6 +535,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -513,6 +549,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -526,6 +563,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -539,6 +577,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -552,6 +591,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -565,6 +605,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -578,6 +619,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -591,6 +633,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -604,6 +647,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -617,6 +661,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -630,6 +675,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -643,6 +689,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -656,6 +703,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -669,6 +717,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -682,6 +731,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -695,6 +745,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -708,6 +759,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -721,6 +773,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -734,6 +787,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -747,6 +801,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -760,6 +815,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -773,6 +829,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -786,6 +843,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -799,6 +857,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -812,6 +871,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -825,6 +885,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -838,6 +899,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -851,6 +913,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -864,6 +927,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -877,6 +941,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -890,6 +955,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -903,6 +969,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -916,6 +983,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -929,6 +997,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -942,6 +1011,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -955,6 +1025,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -968,6 +1039,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -981,6 +1053,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -994,6 +1067,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1007,6 +1081,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1020,6 +1095,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1033,6 +1109,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1046,6 +1123,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1059,6 +1137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1072,6 +1151,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1085,6 +1165,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1098,6 +1179,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1111,6 +1193,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1124,6 +1207,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1137,6 +1221,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1150,6 +1235,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1163,6 +1249,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1176,6 +1263,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1189,6 +1277,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1202,6 +1291,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1215,6 +1305,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1228,6 +1319,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1241,6 +1333,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1254,6 +1347,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1267,6 +1361,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1280,6 +1375,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1293,6 +1389,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1306,6 +1403,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1319,6 +1417,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1332,6 +1431,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1345,6 +1445,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1358,6 +1459,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1371,6 +1473,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1384,6 +1487,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1397,6 +1501,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1410,6 +1515,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1423,6 +1529,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1436,6 +1543,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1449,6 +1557,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1462,6 +1571,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1475,6 +1585,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1488,6 +1599,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1501,6 +1613,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1514,6 +1627,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1527,6 +1641,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1540,6 +1655,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1553,6 +1669,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1566,6 +1683,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1579,6 +1697,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1592,6 +1711,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1605,6 +1725,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1618,6 +1739,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1631,6 +1753,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1644,6 +1767,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1657,6 +1781,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1670,6 +1795,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1683,6 +1809,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1696,6 +1823,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1709,6 +1837,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1722,6 +1851,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1735,6 +1865,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1748,6 +1879,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1761,6 +1893,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1774,6 +1907,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1787,6 +1921,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1800,6 +1935,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1813,6 +1949,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1826,6 +1963,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1839,6 +1977,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1852,6 +1991,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1865,6 +2005,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1878,6 +2019,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1891,6 +2033,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1904,6 +2047,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1917,6 +2061,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1930,6 +2075,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1943,6 +2089,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1956,6 +2103,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1969,6 +2117,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1982,6 +2131,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -1995,6 +2145,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2008,6 +2159,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2021,6 +2173,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2034,6 +2187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2047,6 +2201,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2060,6 +2215,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2073,6 +2229,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2086,6 +2243,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2099,6 +2257,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2112,6 +2271,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2125,6 +2285,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2138,6 +2299,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2151,6 +2313,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2164,6 +2327,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2177,6 +2341,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2190,6 +2355,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2203,6 +2369,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2216,6 +2383,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2229,6 +2397,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2242,6 +2411,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2255,6 +2425,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2268,6 +2439,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2281,6 +2453,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2294,6 +2467,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2307,6 +2481,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2320,6 +2495,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2333,6 +2509,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2346,6 +2523,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2359,6 +2537,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2372,6 +2551,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2385,6 +2565,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2398,6 +2579,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2411,6 +2593,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2424,6 +2607,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2437,6 +2621,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2450,6 +2635,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2463,6 +2649,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2476,6 +2663,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2489,6 +2677,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2502,6 +2691,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2515,6 +2705,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2528,6 +2719,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2541,6 +2733,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2554,6 +2747,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2567,6 +2761,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2580,6 +2775,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2593,6 +2789,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2606,6 +2803,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2619,6 +2817,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2632,6 +2831,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2645,6 +2845,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2658,6 +2859,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2671,6 +2873,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2684,6 +2887,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2697,6 +2901,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2710,6 +2915,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2723,6 +2929,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2736,6 +2943,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2749,6 +2957,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2762,6 +2971,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2775,6 +2985,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2788,6 +2999,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2801,6 +3013,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2814,6 +3027,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2827,6 +3041,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2840,6 +3055,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2853,6 +3069,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2866,6 +3083,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2879,6 +3097,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2892,6 +3111,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2905,6 +3125,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2918,6 +3139,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2931,6 +3153,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2944,6 +3167,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2957,6 +3181,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2970,6 +3195,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2983,6 +3209,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -2996,6 +3223,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3009,6 +3237,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3022,6 +3251,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3035,6 +3265,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3048,6 +3279,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3061,6 +3293,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3074,6 +3307,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3087,6 +3321,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3100,6 +3335,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3113,6 +3349,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3126,6 +3363,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3139,6 +3377,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3152,6 +3391,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3165,6 +3405,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3178,6 +3419,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3191,6 +3433,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3204,6 +3447,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3217,6 +3461,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3230,6 +3475,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3243,6 +3489,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3256,6 +3503,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3269,6 +3517,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3282,6 +3531,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3295,6 +3545,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3308,6 +3559,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3321,6 +3573,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3334,6 +3587,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3347,6 +3601,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3360,6 +3615,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3373,6 +3629,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3386,6 +3643,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3399,6 +3657,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3412,6 +3671,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -3423,7 +3683,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="818">
   <si>
     <t>Timestamp</t>
   </si>
@@ -5874,6 +6134,9 @@
   </si>
   <si>
     <t>要加簽且不為電資/文學院</t>
+  </si>
+  <si>
+    <t>R11943196</t>
   </si>
 </sst>
 </file>
@@ -5884,7 +6147,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0&quot; / 100&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5894,6 +6157,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6145,8 +6415,8 @@
   <dimension ref="A1:AK2506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1850" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2470" sqref="C2470"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13081,7 +13351,7 @@
         <v>812</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>31</v>
@@ -13102,14 +13372,30 @@
       <c r="AJ200" s="1"/>
     </row>
     <row r="201" spans="1:36" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="2"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="AB201" s="1"/>
+      <c r="A201" s="2">
+        <v>45341.564920185185</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB201" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="AC201" s="1"/>
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
@@ -54397,7 +54683,7 @@
       </c>
       <c r="B1" s="1">
         <f>COUNTIFS('Form Responses 1'!AB:AB, "我要加簽", 'Form Responses 1'!F:F, "屬於電資學院 / 文學院")+COUNTIFS('Form Responses 1'!AB:AB, "我要加簽", 'Form Responses 1'!F:F, "現在屬於電資學院 / 文學院")</f>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
